--- a/src/attributions/attributions_ig_traj_170.xlsx
+++ b/src/attributions/attributions_ig_traj_170.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1300432675917982</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001278770775077298</v>
+        <v>-0.1345010810828807</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2273454682876108</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04433504575231373</v>
+        <v>0.00242929335295269</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1450318239792152</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.005797768289875231</v>
+        <v>-0.03466512907320284</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2285361925391075</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02085964276387381</v>
+        <v>0.004469526511393119</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05057119672929167</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.002934345856895157</v>
+        <v>-0.1057514036729393</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.01736233589227211</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02916047207847899</v>
+        <v>-0.04317109139228038</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1085,46 +1085,46 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04100259456077127</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03592916435086679</v>
+        <v>-0.07605427972340863</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01085648554341784</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02317278971305192</v>
+        <v>0.005367920726140095</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03495587366506897</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.01368344206257181</v>
+        <v>-0.04746778189235903</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.0298602511210372</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04012606705156723</v>
+        <v>0.07191143125891197</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
@@ -1133,25 +1133,25 @@
         <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05678401848757152</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.005064714597576995</v>
+        <v>-0.1717595909833013</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.08284363933337956</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1085704818332422</v>
+        <v>0.01865155208229204</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06239772196387668</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.005519444976780712</v>
+        <v>-0.04079309510024247</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.066304162275427</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0201307226589036</v>
+        <v>0.03283340620120182</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02548786297320707</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.005736493186958601</v>
+        <v>0.02284731819459275</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.05095449535107491</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0242441147056797</v>
+        <v>-0.06139456390466035</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,73 +1220,73 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.05026181397485698</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00459314255988176</v>
+        <v>-0.0224160439022575</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.01880520505166924</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01459917648041787</v>
+        <v>-0.005576734370991781</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01447464396338966</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.001152568495839564</v>
+        <v>0.03627934320947346</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04186594810183301</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03026577451779831</v>
+        <v>0.0295740607249829</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.003674623310494278</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01771635372106187</v>
+        <v>-0.02030754756250808</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.02985302072380105</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04880125316349325</v>
+        <v>0.05606994475932985</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01000551841465784</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.005765603166205709</v>
+        <v>0.04935248336591598</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04417562920233499</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02938803313833684</v>
+        <v>0.02296453756375039</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,49 +1328,49 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0122701175027786</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03549402532186347</v>
+        <v>0.04407648556797538</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01310168645478456</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03979114365142306</v>
+        <v>0.05915278330528921</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01930219409605359</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02739514129239523</v>
+        <v>-0.01774329046133111</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03660075961852761</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.03828488191544854</v>
+        <v>-0.01146582227784784</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.000916095007800747</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.007300746969948421</v>
+        <v>-0.04865450827884053</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.005347755318757407</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.02144256758129531</v>
+        <v>-0.02853121857332327</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.04915469289006744</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.007803111317645175</v>
+        <v>0.04820678582620177</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.08372349045933243</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.002746874832120529</v>
+        <v>-0.01623233054878248</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,73 +1436,73 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01501394809566476</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04752308011100606</v>
+        <v>0.04789466871976065</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03644610419047922</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002014120069450427</v>
+        <v>0.03649721248365179</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01937278147304356</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.004415830095207436</v>
+        <v>0.05197321496315279</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03525713401926399</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03513697048671729</v>
+        <v>0.0279484242845618</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.000303561189552075</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.02147436715478487</v>
+        <v>0.01251368300357263</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.02026803619954162</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.003948651337620263</v>
+        <v>0.001524862824296119</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1511,58 +1511,58 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05782871928584184</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.0144016030419982</v>
+        <v>-0.0005064520923302226</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.0009808121277767718</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.02034238821041357</v>
+        <v>0.0138916870285865</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06493911300701233</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0195596594957277</v>
+        <v>-0.04312959506008182</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.0299007786849073</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
